--- a/whonet/static/whonet_xl/whonet_codes_location.xlsx
+++ b/whonet/static/whonet_xl/whonet_codes_location.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\whonet_codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\dmu_sys\whonet\static\whonet_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="772" firstSheet="13" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="772" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="bgh" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9779" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9784" uniqueCount="1211">
   <si>
     <t>WARD</t>
   </si>
@@ -3692,7 +3692,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12844,10 +12844,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E889"/>
+  <dimension ref="A1:E890"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection sqref="A1:E890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27962,6 +27962,23 @@
         <v>13</v>
       </c>
       <c r="E889" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>893</v>
+      </c>
+      <c r="B890" t="s">
+        <v>893</v>
+      </c>
+      <c r="C890" t="s">
+        <v>745</v>
+      </c>
+      <c r="D890" t="s">
+        <v>16</v>
+      </c>
+      <c r="E890" t="s">
         <v>6</v>
       </c>
     </row>
@@ -30060,8 +30077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30189,7 +30206,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -30325,7 +30342,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -30337,7 +30354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/whonet/static/whonet_xl/whonet_codes_location.xlsx
+++ b/whonet/static/whonet_xl/whonet_codes_location.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="772" firstSheet="13" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="772"/>
   </bookViews>
   <sheets>
     <sheet name="bgh" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">feu!$A$1:$E$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">vsm!$A$1:$E$97</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4034,8 +4034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4248,7 +4248,7 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -30077,8 +30077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30355,7 +30355,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
